--- a/results/accel-glmm-results/glmm_main_effects_hab_season_np.xlsx
+++ b/results/accel-glmm-results/glmm_main_effects_hab_season_np.xlsx
@@ -383,13 +383,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>193.757139568158</v>
+        <v>193.77730009557</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000000000000000000000000000000000000000082577045980312</v>
+        <v>0.0000000000000000000000000000000000000000817572480199464</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>4177.77363736549</v>
+        <v>4177.64555793754</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -411,7 +411,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1968.26945795282</v>
+        <v>1968.24894106623</v>
       </c>
       <c r="C4" t="n">
         <v>12</v>
